--- a/aoiConditions/train1Block10Test.xlsx
+++ b/aoiConditions/train1Block10Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
   </si>
 </sst>
 </file>
